--- a/biology/Médecine/Jean_Charles_Marguerite_Guillaume_de_Grimaud/Jean_Charles_Marguerite_Guillaume_de_Grimaud.xlsx
+++ b/biology/Médecine/Jean_Charles_Marguerite_Guillaume_de_Grimaud/Jean_Charles_Marguerite_Guillaume_de_Grimaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles-Marguerite-Guillaume de Grimaud est un médecin français, né à Nantes en 1750, mort dans cette ville le 8 août 1799. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études médicales à Montpellier, où il fut le disciple, l’ami et le protégé de Paul-Joseph Barthez. Dès qu’il fut docteur, en 1776, Grimaud vint à Paris perfectionner ses études.
 Il était de retour à Montpellier depuis plusieurs années, lorsque, sur la demande de Barthez, il fut nommé, en 1781, professeur adjoint et survivancier de ce professeur. Les vives réclamations de la Faculté, contre une nomination qui brisait l’institution du concours, ne réussirent point à la faire révoquer. Du reste, si l’on pouvait appeler illégale la faveur faite à Grimaud, on était forcé
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les ouvrages de Grimaud sont : 
 Tentamen de irritabilitate (Montpellier, 1776, in-4°) ;
